--- a/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/processing_metadata/regression_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A68DAEB5-A8B5-4257-8958-6C8E9EA7CEEE}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F5F4A2-68DF-4C3C-BCCA-DFA92159C4B4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
   </bookViews>
@@ -754,12 +754,6 @@
     <t>UTC</t>
   </si>
   <si>
-    <t>E:/Data_downloads/PAL-LTER/CTD/33LG20070101</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/PAL-LTER/CTD/33LG20161230</t>
-  </si>
-  <si>
     <t>Downcast data only</t>
   </si>
   <si>
@@ -775,9 +769,6 @@
     <t>.nc</t>
   </si>
   <si>
-    <t>E:/Data_downloads/Marlin/09SS20130704</t>
-  </si>
-  <si>
     <t>2m depth binned data</t>
   </si>
   <si>
@@ -862,15 +853,6 @@
     <t>Beam.Transmission</t>
   </si>
   <si>
-    <t>E:/Data_downloads/CCHDO/33RO20071215/exchange_ctd</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/CCHDO/33RR20080204/exchange_ctd</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/CCHDO/33RR20160208/exchange_ctd</t>
-  </si>
-  <si>
     <t>header-LATITUDE</t>
   </si>
   <si>
@@ -1156,9 +1138,6 @@
     <t>Franklin</t>
   </si>
   <si>
-    <t>E:/Data_downloads/SoFEX/33RR20020105/ctd</t>
-  </si>
-  <si>
     <t>33RR20020105</t>
   </si>
   <si>
@@ -1264,9 +1243,6 @@
     <t>09FA19971125</t>
   </si>
   <si>
-    <t>E:/Data_downloads/Marlin/09SS20060328</t>
-  </si>
-  <si>
     <t>096U20150320</t>
   </si>
   <si>
@@ -1315,12 +1291,6 @@
     <t>09AR20160111</t>
   </si>
   <si>
-    <t>E:/Data_downloads/AADC/CTD/09AR20031208</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/AADC/CTD/09AR20070116</t>
-  </si>
-  <si>
     <t>%H%M%S (UTC)</t>
   </si>
   <si>
@@ -1333,12 +1303,6 @@
     <t>TRANSmax</t>
   </si>
   <si>
-    <t>E:/Data_downloads/Marlin/09FA19971125/split</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/MGDS/320620060703/ctd/adapted</t>
-  </si>
-  <si>
     <t>rect</t>
   </si>
   <si>
@@ -1348,9 +1312,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>E:/Data_downloads/PANGEAE/06AQ20161216/ctd/split</t>
-  </si>
-  <si>
     <t>49NZ20040127</t>
   </si>
   <si>
@@ -1372,12 +1333,6 @@
     <t>amacdonald@whoi.edu</t>
   </si>
   <si>
-    <t>E:/Data_downloads/Marlin/096U20150320/ctd</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/Marlin/09SS19950114</t>
-  </si>
-  <si>
     <t>09SS19950114</t>
   </si>
   <si>
@@ -1387,10 +1342,55 @@
     <t>cast</t>
   </si>
   <si>
-    <t>E:/Data_downloads/JGOFS/320619980225/all_ctd</t>
-  </si>
-  <si>
-    <t>E:/Data_downloads/JGOFS/33RR19971020/_allctd</t>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PANGEAE/06AQ20161216/ctd/split</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SoFEX/33RR20020105/ctd</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/CCHDO/33RR20160208/exchange_ctd</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/320619980225/all_ctd</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/CTD/33LG20161230</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/09SS19950114</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/09SS20060328</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/AADC/CTD/09AR20031208</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/09FA19971125/split</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/09SS20130704</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/CCHDO/33RR20080204/exchange_ctd</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/MGDS/320620060703/ctd/adapted</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/AADC/CTD/09AR20070116</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/096U20150320/ctd</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/CCHDO/33RO20071215/exchange_ctd</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/33RR19971020/all_ctd</t>
+  </si>
+  <si>
+    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/CTD/33LG20070101</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1817,10 +1817,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>225</v>
@@ -1832,7 +1832,7 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>10</v>
@@ -1853,13 +1853,13 @@
         <v>15</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>228</v>
@@ -1919,64 +1919,64 @@
         <v>32</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AY1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="BB1" s="2"/>
     </row>
     <row r="2" spans="1:54" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1987,14 +1987,14 @@
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>182</v>
@@ -2002,50 +2002,50 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AH2" s="3" t="s">
         <v>157</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>159</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AN2" s="3" t="s">
         <v>162</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
@@ -2061,34 +2061,34 @@
     </row>
     <row r="3" spans="1:54" s="4" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>370</v>
+        <v>433</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
@@ -2098,13 +2098,13 @@
         <v>235</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>146</v>
@@ -2116,31 +2116,31 @@
         <v>198</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>153</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG3" s="3" t="s">
         <v>156</v>
@@ -2161,10 +2161,10 @@
         <v>161</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AO3" s="3" t="s">
         <v>164</v>
@@ -2175,7 +2175,7 @@
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AV3" s="3" t="s">
         <v>206</v>
@@ -2191,13 +2191,13 @@
     </row>
     <row r="4" spans="1:54" s="4" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>274</v>
+        <v>434</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>121</v>
@@ -2209,7 +2209,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>144</v>
@@ -2218,69 +2218,69 @@
         <v>124</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>235</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>147</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>21</v>
@@ -2307,67 +2307,67 @@
         <v>162</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AQ4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AT4" s="3" t="s">
         <v>167</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BB4" s="3"/>
     </row>
     <row r="5" spans="1:54" s="4" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>123</v>
@@ -2381,7 +2381,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>145</v>
@@ -2390,13 +2390,13 @@
         <v>235</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>146</v>
@@ -2408,7 +2408,7 @@
         <v>148</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>149</v>
@@ -2417,7 +2417,7 @@
         <v>150</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>151</v>
@@ -2429,7 +2429,7 @@
         <v>153</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>154</v>
@@ -2438,7 +2438,7 @@
         <v>155</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>156</v>
@@ -2459,10 +2459,10 @@
         <v>161</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AO5" s="3" t="s">
         <v>164</v>
@@ -2483,37 +2483,37 @@
         <v>169</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AX5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA5" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BB5" s="3"/>
     </row>
     <row r="6" spans="1:54" s="4" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>237</v>
+        <v>436</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>120</v>
@@ -2525,7 +2525,7 @@
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>134</v>
@@ -2539,22 +2539,22 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>235</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>232</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>233</v>
@@ -2566,37 +2566,37 @@
         <v>233</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>234</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>194</v>
@@ -2605,85 +2605,85 @@
         <v>157</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AJ6" s="3" t="s">
         <v>224</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AL6" s="3" t="s">
         <v>176</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>165</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AV6" s="3" t="s">
         <v>206</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BB6" s="3"/>
     </row>
     <row r="7" spans="1:54" s="4" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>126</v>
@@ -2697,7 +2697,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>172</v>
@@ -2706,55 +2706,55 @@
         <v>235</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>183</v>
       </c>
       <c r="U7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB7" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="AE7" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>173</v>
@@ -2781,67 +2781,67 @@
         <v>178</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BB7" s="3"/>
     </row>
     <row r="8" spans="1:54" s="4" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>128</v>
@@ -2855,7 +2855,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>172</v>
@@ -2864,13 +2864,13 @@
         <v>235</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>181</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>182</v>
@@ -2891,7 +2891,7 @@
         <v>187</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>188</v>
@@ -2912,7 +2912,7 @@
         <v>193</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>194</v>
@@ -2921,7 +2921,7 @@
         <v>157</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AJ8" s="3" t="s">
         <v>159</v>
@@ -2942,19 +2942,19 @@
         <v>195</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AU8" s="3" t="s">
         <v>196</v>
@@ -2966,40 +2966,40 @@
         <v>170</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BB8" s="3"/>
     </row>
     <row r="9" spans="1:54" s="4" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>130</v>
@@ -3013,7 +3013,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N9" s="3">
         <v>-9</v>
@@ -3022,55 +3022,55 @@
         <v>235</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>183</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="V9" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="AA9" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG9" s="3" t="s">
         <v>21</v>
@@ -3100,64 +3100,64 @@
         <v>208</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AX9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY9" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA9" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BB9" s="3"/>
     </row>
     <row r="10" spans="1:54" s="4" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>128</v>
@@ -3171,22 +3171,22 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>235</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>210</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>211</v>
@@ -3198,7 +3198,7 @@
         <v>211</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>213</v>
@@ -3207,7 +3207,7 @@
         <v>212</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>214</v>
@@ -3228,7 +3228,7 @@
         <v>219</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG10" s="3" t="s">
         <v>220</v>
@@ -3249,34 +3249,34 @@
         <v>176</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AO10" s="3" t="s">
         <v>223</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AW10" s="3" t="s">
         <v>33</v>
@@ -3285,25 +3285,25 @@
         <v>171</v>
       </c>
       <c r="AY10" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BB10" s="3"/>
     </row>
     <row r="11" spans="1:54" s="4" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>243</v>
+        <v>441</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>118</v>
@@ -3315,7 +3315,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>129</v>
@@ -3329,7 +3329,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>172</v>
@@ -3338,34 +3338,34 @@
         <v>235</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>197</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>198</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>198</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>199</v>
@@ -3386,7 +3386,7 @@
         <v>200</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>201</v>
@@ -3419,16 +3419,16 @@
         <v>206</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AU11" s="3" t="s">
         <v>196</v>
@@ -3443,7 +3443,7 @@
         <v>171</v>
       </c>
       <c r="AY11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AZ11" s="3" t="s">
         <v>207</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="12" spans="1:54" s="4" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>273</v>
+        <v>442</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>121</v>
@@ -3473,78 +3473,78 @@
         <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>143</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>235</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>147</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>21</v>
@@ -3571,104 +3571,104 @@
         <v>162</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AQ12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AU12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AW12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AX12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AZ12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA12" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BB12" s="3"/>
     </row>
     <row r="13" spans="1:54" s="4" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>140</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>235</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="AG13" s="7" t="s">
         <v>194</v>
@@ -3677,28 +3677,28 @@
         <v>157</v>
       </c>
       <c r="AI13" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AJ13" s="3" t="s">
         <v>159</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AL13" s="3" t="s">
         <v>176</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AR13" s="4" t="s">
         <v>167</v>
@@ -3706,25 +3706,25 @@
     </row>
     <row r="14" spans="1:54">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="D14" t="s">
         <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H14" t="s">
         <v>133</v>
@@ -3733,7 +3733,7 @@
         <v>131</v>
       </c>
       <c r="M14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N14">
         <v>-9</v>
@@ -3742,55 +3742,55 @@
         <v>235</v>
       </c>
       <c r="P14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q14" t="s">
+        <v>244</v>
+      </c>
+      <c r="R14" t="s">
+        <v>277</v>
+      </c>
+      <c r="S14" t="s">
+        <v>245</v>
+      </c>
+      <c r="T14" t="s">
+        <v>258</v>
+      </c>
+      <c r="U14" t="s">
+        <v>246</v>
+      </c>
+      <c r="V14" t="s">
         <v>247</v>
       </c>
-      <c r="R14" t="s">
-        <v>283</v>
-      </c>
-      <c r="S14" t="s">
-        <v>248</v>
-      </c>
-      <c r="T14" t="s">
-        <v>261</v>
-      </c>
-      <c r="U14" t="s">
-        <v>249</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
+        <v>255</v>
+      </c>
+      <c r="X14" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z14" t="s">
         <v>250</v>
       </c>
-      <c r="W14" t="s">
-        <v>258</v>
-      </c>
-      <c r="X14" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>253</v>
-      </c>
       <c r="AA14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AB14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AD14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AE14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AF14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG14" t="s">
         <v>21</v>
@@ -3817,10 +3817,10 @@
         <v>205</v>
       </c>
       <c r="AO14" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="AU14" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AW14" t="s">
         <v>33</v>
@@ -3828,25 +3828,25 @@
     </row>
     <row r="15" spans="1:54">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
         <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
         <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H15" t="s">
         <v>137</v>
@@ -3858,22 +3858,22 @@
         <v>138</v>
       </c>
       <c r="M15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N15" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="O15" t="s">
         <v>235</v>
       </c>
       <c r="P15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q15" t="s">
         <v>210</v>
       </c>
       <c r="R15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S15" t="s">
         <v>211</v>
@@ -3885,7 +3885,7 @@
         <v>211</v>
       </c>
       <c r="V15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W15" t="s">
         <v>213</v>
@@ -3894,7 +3894,7 @@
         <v>212</v>
       </c>
       <c r="Y15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z15" t="s">
         <v>214</v>
@@ -3915,7 +3915,7 @@
         <v>219</v>
       </c>
       <c r="AF15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG15" t="s">
         <v>220</v>
@@ -3945,22 +3945,22 @@
         <v>223</v>
       </c>
       <c r="AP15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AQ15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AR15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AT15" t="s">
         <v>206</v>
       </c>
       <c r="AU15" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AV15" t="s">
         <v>206</v>
@@ -3972,24 +3972,24 @@
         <v>171</v>
       </c>
       <c r="AY15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AZ15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:54">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
         <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>446</v>
       </c>
       <c r="D16" t="s">
         <v>121</v>
@@ -4001,7 +4001,7 @@
         <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H16" t="s">
         <v>141</v>
@@ -4013,64 +4013,64 @@
         <v>142</v>
       </c>
       <c r="M16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O16" t="s">
         <v>235</v>
       </c>
       <c r="P16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="R16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T16" t="s">
         <v>147</v>
       </c>
       <c r="U16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="V16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="X16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AA16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AB16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AC16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AE16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG16" t="s">
         <v>21</v>
@@ -4100,51 +4100,51 @@
         <v>29</v>
       </c>
       <c r="AP16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AQ16" t="s">
         <v>31</v>
       </c>
       <c r="AR16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AT16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AU16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AV16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AW16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AX16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AZ16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
         <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D17" t="s">
         <v>117</v>
@@ -4156,7 +4156,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H17" t="s">
         <v>123</v>
@@ -4168,7 +4168,7 @@
         <v>125</v>
       </c>
       <c r="M17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N17" t="s">
         <v>145</v>
@@ -4177,13 +4177,13 @@
         <v>235</v>
       </c>
       <c r="P17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q17" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="R17" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="S17" t="s">
         <v>146</v>
@@ -4195,7 +4195,7 @@
         <v>148</v>
       </c>
       <c r="V17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W17" t="s">
         <v>149</v>
@@ -4204,7 +4204,7 @@
         <v>150</v>
       </c>
       <c r="Y17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z17" t="s">
         <v>151</v>
@@ -4216,7 +4216,7 @@
         <v>153</v>
       </c>
       <c r="AC17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD17" t="s">
         <v>154</v>
@@ -4225,7 +4225,7 @@
         <v>155</v>
       </c>
       <c r="AF17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG17" t="s">
         <v>156</v>
@@ -4270,36 +4270,36 @@
         <v>169</v>
       </c>
       <c r="AU17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AV17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AW17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AX17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AZ17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
         <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>448</v>
       </c>
       <c r="D18" t="s">
         <v>120</v>
@@ -4311,7 +4311,7 @@
         <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H18" t="s">
         <v>134</v>
@@ -4323,22 +4323,22 @@
         <v>136</v>
       </c>
       <c r="M18" t="s">
+        <v>277</v>
+      </c>
+      <c r="N18" t="s">
         <v>283</v>
-      </c>
-      <c r="N18" t="s">
-        <v>289</v>
       </c>
       <c r="O18" t="s">
         <v>235</v>
       </c>
       <c r="P18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q18" t="s">
         <v>232</v>
       </c>
       <c r="R18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S18" t="s">
         <v>233</v>
@@ -4350,37 +4350,37 @@
         <v>233</v>
       </c>
       <c r="V18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="X18" t="s">
         <v>234</v>
       </c>
       <c r="Y18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AA18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AB18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AC18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AD18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AE18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG18" t="s">
         <v>194</v>
@@ -4389,61 +4389,61 @@
         <v>157</v>
       </c>
       <c r="AI18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AJ18" t="s">
         <v>224</v>
       </c>
       <c r="AK18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AL18" t="s">
         <v>176</v>
       </c>
       <c r="AM18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AN18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AO18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AP18" t="s">
         <v>165</v>
       </c>
       <c r="AQ18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AR18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AS18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AT18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AU18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AV18" t="s">
         <v>206</v>
       </c>
       <c r="AW18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AX18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AY18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AZ18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BA18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4471,7 +4471,7 @@
         <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>53</v>
@@ -4490,7 +4490,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
@@ -4509,7 +4509,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>56</v>
@@ -4528,7 +4528,7 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>57</v>
@@ -4547,7 +4547,7 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
@@ -4566,7 +4566,7 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>59</v>
@@ -4585,7 +4585,7 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>60</v>
@@ -4604,7 +4604,7 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>61</v>
@@ -4623,7 +4623,7 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>62</v>
@@ -4642,7 +4642,7 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>63</v>
@@ -4661,7 +4661,7 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>64</v>
@@ -4680,7 +4680,7 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>65</v>
@@ -4699,7 +4699,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>66</v>
@@ -4718,7 +4718,7 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>67</v>
@@ -4737,7 +4737,7 @@
         <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>231</v>
@@ -4756,7 +4756,7 @@
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>68</v>
@@ -4775,7 +4775,7 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>69</v>
@@ -4794,7 +4794,7 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>70</v>
@@ -4810,10 +4810,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>71</v>
@@ -4832,7 +4832,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>72</v>
@@ -4851,10 +4851,10 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>73</v>
@@ -4889,7 +4889,7 @@
         <v>320619930325</v>
       </c>
       <c r="B23" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>74</v>
@@ -4908,7 +4908,7 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>75</v>
@@ -4927,7 +4927,7 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>76</v>
@@ -4946,7 +4946,7 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>77</v>
@@ -4965,7 +4965,7 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>78</v>
@@ -4985,7 +4985,7 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>79</v>
@@ -5005,10 +5005,10 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" t="str">
@@ -5025,10 +5025,10 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D30" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" t="str">
@@ -5086,102 +5086,102 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C14" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5192,7 +5192,7 @@
         <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5203,7 +5203,7 @@
         <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5214,7 +5214,7 @@
         <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5225,12 +5225,12 @@
         <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>164</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -5249,7 +5249,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5257,7 +5257,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5265,65 +5265,65 @@
         <v>102</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5331,10 +5331,10 @@
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5342,10 +5342,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5353,10 +5353,10 @@
         <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5364,10 +5364,10 @@
         <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5375,10 +5375,10 @@
         <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5386,10 +5386,10 @@
         <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5397,10 +5397,10 @@
         <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C35" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5408,10 +5408,10 @@
         <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5419,10 +5419,10 @@
         <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5430,10 +5430,10 @@
         <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5441,10 +5441,10 @@
         <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5452,10 +5452,10 @@
         <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5463,10 +5463,10 @@
         <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5474,10 +5474,10 @@
         <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5485,10 +5485,10 @@
         <v>231</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5496,10 +5496,10 @@
         <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5507,7 +5507,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5515,10 +5515,10 @@
         <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5526,10 +5526,10 @@
         <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C47" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5537,18 +5537,18 @@
         <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5556,7 +5556,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5572,7 +5572,7 @@
         <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5580,7 +5580,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5588,7 +5588,7 @@
         <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5596,7 +5596,7 @@
         <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5604,10 +5604,10 @@
         <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5615,15 +5615,15 @@
         <v>320619990611</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5631,7 +5631,7 @@
         <v>41</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5639,7 +5639,7 @@
         <v>43</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5650,7 +5650,7 @@
         <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5658,7 +5658,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5671,13 +5671,13 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C64" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5688,7 +5688,7 @@
         <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5699,45 +5699,45 @@
         <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C67" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C69" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>195</v>
@@ -5748,18 +5748,18 @@
         <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C72" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5770,23 +5770,23 @@
         <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C74" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>195</v>
@@ -5794,13 +5794,13 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5813,7 +5813,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>195</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>223</v>
@@ -5837,13 +5837,13 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C81" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5854,12 +5854,12 @@
         <v>223</v>
       </c>
       <c r="C82" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>223</v>
@@ -5873,7 +5873,7 @@
         <v>223</v>
       </c>
       <c r="C84" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5881,40 +5881,40 @@
         <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5933,7 +5933,7 @@
         <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5949,7 +5949,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -5957,7 +5957,7 @@
         <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -5965,10 +5965,10 @@
         <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C94" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -5976,7 +5976,7 @@
         <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -5984,7 +5984,7 @@
         <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5992,7 +5992,7 @@
         <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6000,7 +6000,7 @@
         <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6008,10 +6008,10 @@
         <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6019,10 +6019,10 @@
         <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C100" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6033,7 +6033,7 @@
         <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6041,7 +6041,7 @@
         <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6049,7 +6049,7 @@
         <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6057,7 +6057,7 @@
         <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6073,7 +6073,7 @@
         <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6084,7 +6084,7 @@
         <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -6095,84 +6095,84 @@
         <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C111" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>195</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>195</v>
@@ -6188,25 +6188,25 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C122" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6217,7 +6217,7 @@
         <v>195</v>
       </c>
       <c r="C123" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6228,7 +6228,7 @@
         <v>195</v>
       </c>
       <c r="C124" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6239,7 +6239,7 @@
         <v>208</v>
       </c>
       <c r="C125" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6258,18 +6258,18 @@
         <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C128" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6277,18 +6277,18 @@
         <v>92</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C130" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6296,7 +6296,7 @@
         <v>93</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6304,15 +6304,15 @@
         <v>94</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6346,22 +6346,22 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F5F4A2-68DF-4C3C-BCCA-DFA92159C4B4}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57AEFC9D-4342-4D9A-8B7B-BA413825B0CB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="466">
   <si>
     <t>path</t>
   </si>
@@ -1342,55 +1342,106 @@
     <t>cast</t>
   </si>
   <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PANGEAE/06AQ20161216/ctd/split</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/SoFEX/33RR20020105/ctd</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/CCHDO/33RR20160208/exchange_ctd</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/320619980225/all_ctd</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/CTD/33LG20161230</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/09SS19950114</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/09SS20060328</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/AADC/CTD/09AR20031208</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/09FA19971125/split</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/09SS20130704</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/CCHDO/33RR20080204/exchange_ctd</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/MGDS/320620060703/ctd/adapted</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/AADC/CTD/09AR20070116</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/Marlin/096U20150320/ctd</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/CCHDO/33RO20071215/exchange_ctd</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/JGOFS/33RR19971020/all_ctd</t>
-  </si>
-  <si>
-    <t>./BIO-MATE/product_data/regression_test/downloaded_data/PAL-LTER/CTD/33LG20070101</t>
+    <t>./product_data/regression_test/downloaded_data/PANGEAE/06AQ20161216/ctd/split</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/SoFEX/33RR20020105/ctd</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/CCHDO/33RR20160208/exchange_ctd</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/JGOFS/320619980225/all_ctd</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/PAL-LTER/CTD/33LG20161230</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/Marlin/09SS19950114</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/Marlin/09SS20060328</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/AADC/CTD/09AR20031208</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/Marlin/09FA19971125/split</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/Marlin/09SS20130704</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/CCHDO/33RR20080204/exchange_ctd</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/MGDS/320620060703/ctd/adapted</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/AADC/CTD/09AR20070116</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/Marlin/096U20150320/ctd</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/CCHDO/33RO20071215/exchange_ctd</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/JGOFS/33RR19971020/all_ctd</t>
+  </si>
+  <si>
+    <t>./product_data/regression_test/downloaded_data/PAL-LTER/CTD/33LG20070101</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>06AQ20161216_prof</t>
+  </si>
+  <si>
+    <t>33RR20020105_prof</t>
+  </si>
+  <si>
+    <t>33RR20160208_prof</t>
+  </si>
+  <si>
+    <t>320619980225_prof</t>
+  </si>
+  <si>
+    <t>PAL-LTER_prof</t>
+  </si>
+  <si>
+    <t>09SS19950114_prof</t>
+  </si>
+  <si>
+    <t>09SS20060328_prof</t>
+  </si>
+  <si>
+    <t>AADC_prof</t>
+  </si>
+  <si>
+    <t>09FA19971125_prof</t>
+  </si>
+  <si>
+    <t>09SS20130704_prof</t>
+  </si>
+  <si>
+    <t>33RR20080204_prof</t>
+  </si>
+  <si>
+    <t>320620060703_prof</t>
+  </si>
+  <si>
+    <t>09AR20070116_prof</t>
+  </si>
+  <si>
+    <t>096U20150320_prof</t>
+  </si>
+  <si>
+    <t>33RR19971020_prof</t>
+  </si>
+  <si>
+    <t>33RO20071215_prof</t>
   </si>
 </sst>
 </file>
@@ -1773,11 +1824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F604D3-423B-4BA3-A8B4-3528C702D3DE}">
-  <dimension ref="A1:BB18"/>
+  <dimension ref="A1:BC18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1785,7 +1836,7 @@
     <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:55">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1820,134 +1871,137 @@
         <v>421</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="BB1" s="2"/>
-    </row>
-    <row r="2" spans="1:54" s="4" customFormat="1">
+      <c r="BC1" s="2"/>
+    </row>
+    <row r="2" spans="1:55" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>238</v>
       </c>
@@ -1979,75 +2033,77 @@
         <v>358</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
@@ -2058,8 +2114,9 @@
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
-    </row>
-    <row r="3" spans="1:54" s="4" customFormat="1">
+      <c r="BC2" s="3"/>
+    </row>
+    <row r="3" spans="1:55" s="4" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>238</v>
       </c>
@@ -2090,106 +2147,109 @@
       <c r="J3" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="L3" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="S3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3" t="s">
+      <c r="W3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Z3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD3" s="3"/>
+      <c r="AD3" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="3" t="s">
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-    </row>
-    <row r="4" spans="1:54" s="4" customFormat="1">
+      <c r="BC3" s="3"/>
+    </row>
+    <row r="4" spans="1:55" s="4" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>238</v>
       </c>
@@ -2221,55 +2281,55 @@
         <v>428</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="X4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AC4" s="3" t="s">
         <v>277</v>
       </c>
@@ -2280,53 +2340,53 @@
         <v>277</v>
       </c>
       <c r="AF4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AQ4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AR4" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AS4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT4" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AU4" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AV4" s="3" t="s">
         <v>277</v>
       </c>
@@ -2345,9 +2405,12 @@
       <c r="BA4" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BB4" s="3"/>
-    </row>
-    <row r="5" spans="1:54" s="4" customFormat="1">
+      <c r="BB4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC4" s="3"/>
+    </row>
+    <row r="5" spans="1:55" s="4" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>238</v>
       </c>
@@ -2379,112 +2442,112 @@
         <v>125</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="L5" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="W5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Z5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AD5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AM5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AM5" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AN5" s="3" t="s">
         <v>277</v>
       </c>
       <c r="AO5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AR5" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AS5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AU5" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AV5" s="3" t="s">
         <v>277</v>
       </c>
@@ -2503,9 +2566,12 @@
       <c r="BA5" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BB5" s="3"/>
-    </row>
-    <row r="6" spans="1:54" s="4" customFormat="1">
+      <c r="BB5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC5" s="3"/>
+    </row>
+    <row r="6" spans="1:55" s="4" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>238</v>
       </c>
@@ -2537,55 +2603,55 @@
         <v>136</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="L6" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="S6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="W6" s="3" t="s">
         <v>277</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Z6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AB6" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AC6" s="3" t="s">
         <v>277</v>
       </c>
@@ -2596,41 +2662,41 @@
         <v>277</v>
       </c>
       <c r="AF6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AH6" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AL6" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AM6" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AN6" s="3" t="s">
         <v>277</v>
       </c>
       <c r="AO6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP6" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AQ6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AQ6" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AR6" s="3" t="s">
         <v>277</v>
       </c>
@@ -2641,29 +2707,32 @@
         <v>277</v>
       </c>
       <c r="AU6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV6" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="AV6" s="3" t="s">
+      <c r="AW6" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AW6" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AX6" s="3" t="s">
         <v>277</v>
       </c>
       <c r="AY6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AZ6" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BA6" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BB6" s="3"/>
-    </row>
-    <row r="7" spans="1:54" s="4" customFormat="1">
+      <c r="BB6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC6" s="3"/>
+    </row>
+    <row r="7" spans="1:55" s="4" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>238</v>
       </c>
@@ -2695,94 +2764,94 @@
         <v>127</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="S7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Z7" s="3" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>250</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>251</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>252</v>
       </c>
       <c r="AF7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG7" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AH7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AO7" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AO7" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AP7" s="3" t="s">
         <v>277</v>
       </c>
@@ -2811,17 +2880,20 @@
         <v>277</v>
       </c>
       <c r="AY7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AZ7" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BA7" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BB7" s="3"/>
-    </row>
-    <row r="8" spans="1:54" s="4" customFormat="1">
+      <c r="BB7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC7" s="3"/>
+    </row>
+    <row r="8" spans="1:55" s="4" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>238</v>
       </c>
@@ -2853,97 +2925,97 @@
         <v>127</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="L8" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="S8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Z8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA8" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AL8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AM8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AN8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AN8" s="3" t="s">
+      <c r="AO8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AO8" s="3" t="s">
+      <c r="AP8" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AP8" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AQ8" s="3" t="s">
         <v>277</v>
       </c>
@@ -2957,29 +3029,32 @@
         <v>277</v>
       </c>
       <c r="AU8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV8" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AV8" s="3" t="s">
+      <c r="AW8" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AW8" s="3" t="s">
+      <c r="AX8" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="AX8" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AY8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AZ8" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BA8" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BB8" s="3"/>
-    </row>
-    <row r="9" spans="1:54" s="4" customFormat="1">
+      <c r="BB8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC8" s="3"/>
+    </row>
+    <row r="9" spans="1:55" s="4" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>238</v>
       </c>
@@ -3011,97 +3086,97 @@
         <v>132</v>
       </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-9</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="S9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Z9" s="3" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>250</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>251</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>256</v>
       </c>
       <c r="AF9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG9" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AL9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AM9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AN9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="3" t="s">
+      <c r="AO9" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AO9" s="3" t="s">
+      <c r="AP9" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AP9" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AQ9" s="3" t="s">
         <v>277</v>
       </c>
@@ -3127,17 +3202,20 @@
         <v>277</v>
       </c>
       <c r="AY9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AZ9" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BA9" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BB9" s="3"/>
-    </row>
-    <row r="10" spans="1:54" s="4" customFormat="1">
+      <c r="BB9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC9" s="3"/>
+    </row>
+    <row r="10" spans="1:55" s="4" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>238</v>
       </c>
@@ -3169,97 +3247,97 @@
         <v>127</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="L10" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="S10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="W10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Z10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA10" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AH10" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AL10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AM10" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AN10" s="3" t="s">
         <v>277</v>
       </c>
       <c r="AO10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP10" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AP10" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AQ10" s="3" t="s">
         <v>277</v>
       </c>
@@ -3279,23 +3357,26 @@
         <v>277</v>
       </c>
       <c r="AW10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AX10" s="3" t="s">
+      <c r="AY10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="AY10" s="3" t="s">
+      <c r="AZ10" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AZ10" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="BA10" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BB10" s="3"/>
-    </row>
-    <row r="11" spans="1:54" s="4" customFormat="1">
+      <c r="BB10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC10" s="3"/>
+    </row>
+    <row r="11" spans="1:55" s="4" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>239</v>
       </c>
@@ -3327,100 +3408,100 @@
         <v>127</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="L11" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="S11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="W11" s="3" t="s">
         <v>277</v>
       </c>
       <c r="X11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Z11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AI11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AM11" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AN11" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AN11" s="3" t="s">
+      <c r="AO11" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AP11" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AP11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AR11" s="3" t="s">
         <v>277</v>
       </c>
@@ -3431,29 +3512,32 @@
         <v>277</v>
       </c>
       <c r="AU11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV11" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AV11" s="3" t="s">
+      <c r="AW11" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AW11" s="3" t="s">
+      <c r="AX11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="AX11" s="3" t="s">
+      <c r="AY11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="AY11" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AZ11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BA11" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="BA11" s="3" t="s">
+      <c r="BB11" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="BB11" s="3"/>
-    </row>
-    <row r="12" spans="1:54" s="4" customFormat="1">
+      <c r="BC11" s="3"/>
+    </row>
+    <row r="12" spans="1:55" s="4" customFormat="1">
       <c r="A12" s="3" t="s">
         <v>238</v>
       </c>
@@ -3485,55 +3569,55 @@
         <v>277</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="Q12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="X12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y12" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AC12" s="3" t="s">
         <v>277</v>
       </c>
@@ -3544,44 +3628,44 @@
         <v>277</v>
       </c>
       <c r="AF12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG12" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AH12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AI12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AJ12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AJ12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK12" s="3" t="s">
+      <c r="AL12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AL12" s="3" t="s">
+      <c r="AM12" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AN12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AN12" s="3" t="s">
+      <c r="AO12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AO12" s="3" t="s">
+      <c r="AP12" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="AP12" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AQ12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AR12" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AS12" s="3" t="s">
         <v>277</v>
       </c>
@@ -3595,11 +3679,11 @@
         <v>277</v>
       </c>
       <c r="AW12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AX12" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="AY12" s="3" t="s">
         <v>277</v>
       </c>
@@ -3609,9 +3693,12 @@
       <c r="BA12" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BB12" s="3"/>
-    </row>
-    <row r="13" spans="1:54" s="4" customFormat="1">
+      <c r="BB12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC12" s="3"/>
+    </row>
+    <row r="13" spans="1:55" s="4" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>238</v>
       </c>
@@ -3639,72 +3726,75 @@
       <c r="I13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="S13" s="3" t="s">
+      <c r="R13" s="3"/>
+      <c r="T13" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="AF13" s="3" t="s">
+      <c r="AG13" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="AG13" s="7" t="s">
+      <c r="AH13" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AI13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AI13" s="7" t="s">
+      <c r="AJ13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="AJ13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AK13" s="4" t="s">
+      <c r="AL13" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AM13" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AM13" s="4" t="s">
+      <c r="AN13" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="AN13" s="3" t="s">
+      <c r="AO13" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="AO13" s="4" t="s">
+      <c r="AP13" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="AQ13" s="4" t="s">
+      <c r="AR13" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="AR13" s="4" t="s">
+      <c r="AS13" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:55">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -3732,101 +3822,104 @@
       <c r="I14" t="s">
         <v>131</v>
       </c>
-      <c r="M14" t="s">
+      <c r="L14" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="N14" t="s">
         <v>243</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-9</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>235</v>
       </c>
-      <c r="P14" t="s">
-        <v>277</v>
-      </c>
       <c r="Q14" t="s">
+        <v>277</v>
+      </c>
+      <c r="R14" t="s">
         <v>244</v>
       </c>
-      <c r="R14" t="s">
-        <v>277</v>
-      </c>
       <c r="S14" t="s">
+        <v>277</v>
+      </c>
+      <c r="T14" t="s">
         <v>245</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>258</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>246</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>247</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>255</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>415</v>
       </c>
-      <c r="Y14" t="s">
-        <v>277</v>
-      </c>
       <c r="Z14" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AA14" t="s">
         <v>250</v>
       </c>
       <c r="AB14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC14" t="s">
         <v>251</v>
       </c>
       <c r="AD14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AE14" t="s">
         <v>256</v>
       </c>
       <c r="AF14" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG14" t="s">
         <v>257</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>21</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>157</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>23</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>159</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>25</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>176</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>205</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>417</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AV14" t="s">
         <v>418</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:55">
       <c r="A15" t="s">
         <v>238</v>
       </c>
@@ -3857,96 +3950,96 @@
       <c r="J15" t="s">
         <v>138</v>
       </c>
-      <c r="M15" t="s">
-        <v>277</v>
+      <c r="L15" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="N15" t="s">
+        <v>277</v>
+      </c>
+      <c r="O15" t="s">
         <v>420</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>235</v>
       </c>
-      <c r="P15" t="s">
-        <v>277</v>
-      </c>
       <c r="Q15" t="s">
+        <v>277</v>
+      </c>
+      <c r="R15" t="s">
         <v>210</v>
       </c>
-      <c r="R15" t="s">
-        <v>277</v>
-      </c>
       <c r="S15" t="s">
+        <v>277</v>
+      </c>
+      <c r="T15" t="s">
         <v>211</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>212</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>211</v>
       </c>
-      <c r="V15" t="s">
-        <v>277</v>
-      </c>
       <c r="W15" t="s">
+        <v>277</v>
+      </c>
+      <c r="X15" t="s">
         <v>213</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>212</v>
       </c>
-      <c r="Y15" t="s">
-        <v>277</v>
-      </c>
       <c r="Z15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA15" t="s">
         <v>214</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>215</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>216</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>217</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>218</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>219</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>260</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>220</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>157</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>221</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>159</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>222</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>176</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>209</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>205</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>223</v>
       </c>
-      <c r="AP15" t="s">
-        <v>277</v>
-      </c>
       <c r="AQ15" t="s">
         <v>277</v>
       </c>
@@ -3954,34 +4047,37 @@
         <v>277</v>
       </c>
       <c r="AS15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT15" t="s">
         <v>287</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>206</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AV15" t="s">
         <v>288</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>206</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>33</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>171</v>
       </c>
-      <c r="AY15" t="s">
-        <v>277</v>
-      </c>
       <c r="AZ15" t="s">
         <v>277</v>
       </c>
       <c r="BA15" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="16" spans="1:54">
+      <c r="BB15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55">
       <c r="A16" t="s">
         <v>238</v>
       </c>
@@ -4012,54 +4108,54 @@
       <c r="J16" t="s">
         <v>142</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="N16" t="s">
         <v>273</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>283</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>235</v>
       </c>
-      <c r="P16" t="s">
-        <v>277</v>
-      </c>
       <c r="Q16" t="s">
+        <v>277</v>
+      </c>
+      <c r="R16" t="s">
         <v>272</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>274</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>245</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>147</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>271</v>
       </c>
-      <c r="V16" t="s">
-        <v>277</v>
-      </c>
       <c r="W16" t="s">
         <v>277</v>
       </c>
       <c r="X16" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y16" t="s">
         <v>259</v>
       </c>
-      <c r="Y16" t="s">
-        <v>277</v>
-      </c>
       <c r="Z16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA16" t="s">
         <v>269</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>270</v>
       </c>
-      <c r="AB16" t="s">
-        <v>277</v>
-      </c>
       <c r="AC16" t="s">
         <v>277</v>
       </c>
@@ -4070,44 +4166,44 @@
         <v>277</v>
       </c>
       <c r="AF16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG16" t="s">
         <v>260</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>21</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>157</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>23</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>159</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>25</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>176</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>27</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>162</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>29</v>
       </c>
-      <c r="AP16" t="s">
-        <v>277</v>
-      </c>
       <c r="AQ16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR16" t="s">
         <v>31</v>
       </c>
-      <c r="AR16" t="s">
-        <v>277</v>
-      </c>
       <c r="AS16" t="s">
         <v>277</v>
       </c>
@@ -4135,8 +4231,11 @@
       <c r="BA16" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="17" spans="1:53">
+      <c r="BB16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -4167,111 +4266,111 @@
       <c r="J17" t="s">
         <v>125</v>
       </c>
-      <c r="M17" t="s">
-        <v>277</v>
+      <c r="L17" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="N17" t="s">
+        <v>277</v>
+      </c>
+      <c r="O17" t="s">
         <v>145</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>235</v>
       </c>
-      <c r="P17" t="s">
-        <v>277</v>
-      </c>
       <c r="Q17" t="s">
+        <v>277</v>
+      </c>
+      <c r="R17" t="s">
         <v>430</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>431</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>146</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>147</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>148</v>
       </c>
-      <c r="V17" t="s">
-        <v>277</v>
-      </c>
       <c r="W17" t="s">
+        <v>277</v>
+      </c>
+      <c r="X17" t="s">
         <v>149</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>150</v>
       </c>
-      <c r="Y17" t="s">
-        <v>277</v>
-      </c>
       <c r="Z17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA17" t="s">
         <v>151</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>152</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>153</v>
       </c>
-      <c r="AC17" t="s">
-        <v>277</v>
-      </c>
       <c r="AD17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE17" t="s">
         <v>154</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>155</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>260</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>156</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>157</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>158</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>159</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>160</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>161</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>163</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>162</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>164</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>165</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>166</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>167</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>168</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>169</v>
       </c>
-      <c r="AU17" t="s">
-        <v>277</v>
-      </c>
       <c r="AV17" t="s">
         <v>277</v>
       </c>
@@ -4290,8 +4389,11 @@
       <c r="BA17" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="18" spans="1:53">
+      <c r="BB17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54">
       <c r="A18" t="s">
         <v>238</v>
       </c>
@@ -4322,54 +4424,54 @@
       <c r="J18" t="s">
         <v>136</v>
       </c>
-      <c r="M18" t="s">
-        <v>277</v>
+      <c r="L18" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="N18" t="s">
+        <v>277</v>
+      </c>
+      <c r="O18" t="s">
         <v>283</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>235</v>
       </c>
-      <c r="P18" t="s">
-        <v>277</v>
-      </c>
       <c r="Q18" t="s">
+        <v>277</v>
+      </c>
+      <c r="R18" t="s">
         <v>232</v>
       </c>
-      <c r="R18" t="s">
-        <v>277</v>
-      </c>
       <c r="S18" t="s">
+        <v>277</v>
+      </c>
+      <c r="T18" t="s">
         <v>233</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>234</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>233</v>
       </c>
-      <c r="V18" t="s">
-        <v>277</v>
-      </c>
       <c r="W18" t="s">
         <v>277</v>
       </c>
       <c r="X18" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y18" t="s">
         <v>234</v>
       </c>
-      <c r="Y18" t="s">
-        <v>277</v>
-      </c>
       <c r="Z18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA18" t="s">
         <v>264</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>263</v>
       </c>
-      <c r="AB18" t="s">
-        <v>277</v>
-      </c>
       <c r="AC18" t="s">
         <v>277</v>
       </c>
@@ -4380,41 +4482,41 @@
         <v>277</v>
       </c>
       <c r="AF18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG18" t="s">
         <v>260</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>194</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>157</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>265</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>224</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>266</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>176</v>
       </c>
-      <c r="AM18" t="s">
-        <v>277</v>
-      </c>
       <c r="AN18" t="s">
         <v>277</v>
       </c>
       <c r="AO18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP18" t="s">
         <v>267</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>165</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>277</v>
-      </c>
       <c r="AR18" t="s">
         <v>277</v>
       </c>
@@ -4425,24 +4527,27 @@
         <v>277</v>
       </c>
       <c r="AU18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV18" t="s">
         <v>268</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>206</v>
       </c>
-      <c r="AW18" t="s">
-        <v>277</v>
-      </c>
       <c r="AX18" t="s">
         <v>277</v>
       </c>
       <c r="AY18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>236</v>
       </c>
-      <c r="AZ18" t="s">
-        <v>277</v>
-      </c>
       <c r="BA18" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB18" t="s">
         <v>277</v>
       </c>
     </row>

--- a/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57AEFC9D-4342-4D9A-8B7B-BA413825B0CB}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF0CA202-D214-443C-B802-70B57F2F35DA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,9 +397,6 @@
     <t>RUB320161220</t>
   </si>
   <si>
-    <t>JGOFS</t>
-  </si>
-  <si>
     <t>CSIRO</t>
   </si>
   <si>
@@ -1442,6 +1439,9 @@
   </si>
   <si>
     <t>33RO20071215_prof</t>
+  </si>
+  <si>
+    <t>BCO-DMO</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1828,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1841,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1868,16 +1868,16 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>9</v>
@@ -1886,7 +1886,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>10</v>
@@ -1901,25 +1901,25 @@
         <v>14</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>17</v>
@@ -1934,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>21</v>
@@ -1973,136 +1973,136 @@
         <v>32</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AU1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AY1" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="AZ1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BC1" s="2"/>
     </row>
     <row r="2" spans="1:55" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH2" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="AI2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
@@ -2118,116 +2118,116 @@
     </row>
     <row r="3" spans="1:55" s="4" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>465</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="V3" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="AB3" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="AC3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AM3" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="AN3" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
@@ -2235,10 +2235,10 @@
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX3" s="3" t="s">
         <v>33</v>
@@ -2251,16 +2251,16 @@
     </row>
     <row r="4" spans="1:55" s="4" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>102</v>
@@ -2269,320 +2269,320 @@
         <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="AH4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AR4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC4" s="3"/>
     </row>
     <row r="5" spans="1:55" s="4" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>117</v>
+        <v>465</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AD5" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AG5" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AL5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AM5" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AM5" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="AN5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AP5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AR5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AS5" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AU5" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="AV5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AW5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AX5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AY5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BA5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC5" s="3"/>
     </row>
     <row r="6" spans="1:55" s="4" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>70</v>
@@ -2591,803 +2591,803 @@
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="BA6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC6" s="3"/>
     </row>
     <row r="7" spans="1:55" s="4" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="S7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AF7" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO7" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="BA7" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" s="4" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA8" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AG8" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP8" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AI8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="AK8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP8" s="3" t="s">
+      <c r="AQ8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV8" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AQ8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV8" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="AW8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" s="4" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O9" s="3">
         <v>-9</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="X9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG9" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="AH9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AX9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AY9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BA9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB9" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" s="4" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="X10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA10" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AF10" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH10" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AG10" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AI10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL10" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AK10" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AM10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN10" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO10" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="AQ10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AW10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AX10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AY10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" s="4" customFormat="1">
       <c r="A11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>50</v>
@@ -3396,159 +3396,159 @@
         <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA11" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="U11" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="V11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC11" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH11" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AC11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AI11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AI11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL11" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AK11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AM11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN11" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AM11" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN11" s="3" t="s">
+      <c r="AO11" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AP11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AP11" s="3" t="s">
+      <c r="AR11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV11" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AQ11" s="3" t="s">
+      <c r="AW11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="BA11" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AR11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ11" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA11" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="BB11" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" s="4" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>101</v>
@@ -3557,363 +3557,363 @@
         <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="T12" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z12" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG12" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF12" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="AH12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AQ12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AR12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AU12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AW12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AX12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AY12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BA12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" s="4" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R13" s="3"/>
       <c r="T13" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="V13" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y13" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="Y13" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="AA13" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB13" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="AB13" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="AG13" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH13" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL13" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="AK13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL13" s="4" t="s">
+      <c r="AM13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="AP13" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="AM13" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AO13" s="3" t="s">
+      <c r="AR13" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="AP13" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR13" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="AS13" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:55">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O14">
         <v>-9</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R14" t="s">
+        <v>243</v>
+      </c>
+      <c r="S14" t="s">
+        <v>276</v>
+      </c>
+      <c r="T14" t="s">
         <v>244</v>
       </c>
-      <c r="S14" t="s">
-        <v>277</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
+        <v>257</v>
+      </c>
+      <c r="V14" t="s">
         <v>245</v>
       </c>
-      <c r="U14" t="s">
-        <v>258</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>246</v>
       </c>
-      <c r="W14" t="s">
-        <v>247</v>
-      </c>
       <c r="X14" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE14" t="s">
         <v>255</v>
       </c>
-      <c r="Y14" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG14" t="s">
         <v>256</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>257</v>
       </c>
       <c r="AH14" t="s">
         <v>21</v>
       </c>
       <c r="AI14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ14" t="s">
         <v>23</v>
       </c>
       <c r="AK14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL14" t="s">
         <v>25</v>
       </c>
       <c r="AM14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s">
         <v>27</v>
       </c>
       <c r="AO14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AV14" t="s">
         <v>417</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>418</v>
       </c>
       <c r="AX14" t="s">
         <v>33</v>
@@ -3921,174 +3921,174 @@
     </row>
     <row r="15" spans="1:55">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
         <v>137</v>
       </c>
-      <c r="I15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" t="s">
-        <v>138</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R15" t="s">
+        <v>209</v>
+      </c>
+      <c r="S15" t="s">
+        <v>276</v>
+      </c>
+      <c r="T15" t="s">
         <v>210</v>
       </c>
-      <c r="S15" t="s">
-        <v>277</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>211</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
+        <v>210</v>
+      </c>
+      <c r="W15" t="s">
+        <v>276</v>
+      </c>
+      <c r="X15" t="s">
         <v>212</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Y15" t="s">
         <v>211</v>
       </c>
-      <c r="W15" t="s">
-        <v>277</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA15" t="s">
         <v>213</v>
       </c>
-      <c r="Y15" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>214</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>215</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>216</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>217</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>218</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH15" t="s">
         <v>219</v>
       </c>
-      <c r="AG15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>220</v>
       </c>
-      <c r="AI15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL15" t="s">
         <v>221</v>
       </c>
-      <c r="AK15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP15" t="s">
         <v>222</v>
       </c>
-      <c r="AM15" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>209</v>
-      </c>
-      <c r="AO15" t="s">
+      <c r="AQ15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU15" t="s">
         <v>205</v>
       </c>
-      <c r="AP15" t="s">
-        <v>223</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT15" t="s">
+      <c r="AV15" t="s">
         <v>287</v>
       </c>
-      <c r="AU15" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>288</v>
-      </c>
       <c r="AW15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX15" t="s">
         <v>33</v>
       </c>
       <c r="AY15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AZ15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BA15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:55">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>96</v>
@@ -4097,156 +4097,156 @@
         <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
         <v>141</v>
       </c>
-      <c r="I16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" t="s">
-        <v>142</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N16" t="s">
+        <v>272</v>
+      </c>
+      <c r="O16" t="s">
+        <v>282</v>
+      </c>
+      <c r="P16" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>276</v>
+      </c>
+      <c r="R16" t="s">
+        <v>271</v>
+      </c>
+      <c r="S16" t="s">
         <v>273</v>
       </c>
-      <c r="O16" t="s">
-        <v>283</v>
-      </c>
-      <c r="P16" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>277</v>
-      </c>
-      <c r="R16" t="s">
-        <v>272</v>
-      </c>
-      <c r="S16" t="s">
-        <v>274</v>
-      </c>
       <c r="T16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y16" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG16" t="s">
         <v>259</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>260</v>
       </c>
       <c r="AH16" t="s">
         <v>21</v>
       </c>
       <c r="AI16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AJ16" t="s">
         <v>23</v>
       </c>
       <c r="AK16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL16" t="s">
         <v>25</v>
       </c>
       <c r="AM16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s">
         <v>27</v>
       </c>
       <c r="AO16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AP16" t="s">
         <v>29</v>
       </c>
       <c r="AQ16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AR16" t="s">
         <v>31</v>
       </c>
       <c r="AS16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AU16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AV16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AW16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AX16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AY16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BA16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:54">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>465</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -4255,156 +4255,156 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="s">
         <v>123</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>124</v>
       </c>
-      <c r="J17" t="s">
-        <v>125</v>
-      </c>
       <c r="L17" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O17" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>276</v>
+      </c>
+      <c r="R17" t="s">
+        <v>429</v>
+      </c>
+      <c r="S17" t="s">
+        <v>430</v>
+      </c>
+      <c r="T17" t="s">
         <v>145</v>
       </c>
-      <c r="P17" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>277</v>
-      </c>
-      <c r="R17" t="s">
-        <v>430</v>
-      </c>
-      <c r="S17" t="s">
-        <v>431</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>146</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>147</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
+        <v>276</v>
+      </c>
+      <c r="X17" t="s">
         <v>148</v>
       </c>
-      <c r="W17" t="s">
-        <v>277</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>149</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA17" t="s">
         <v>150</v>
       </c>
-      <c r="Z17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>151</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>152</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE17" t="s">
         <v>153</v>
       </c>
-      <c r="AD17" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>154</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH17" t="s">
         <v>155</v>
       </c>
-      <c r="AG17" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>156</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>157</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>158</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>159</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>160</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO17" t="s">
         <v>161</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AP17" t="s">
         <v>163</v>
       </c>
-      <c r="AO17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>164</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>165</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>166</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>167</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>168</v>
       </c>
-      <c r="AU17" t="s">
-        <v>169</v>
-      </c>
       <c r="AV17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AW17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AX17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AY17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BA17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:54">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>61</v>
@@ -4413,142 +4413,142 @@
         <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" t="s">
         <v>134</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>135</v>
       </c>
-      <c r="J18" t="s">
-        <v>136</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P18" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>276</v>
+      </c>
+      <c r="R18" t="s">
+        <v>231</v>
+      </c>
+      <c r="S18" t="s">
+        <v>276</v>
+      </c>
+      <c r="T18" t="s">
+        <v>232</v>
+      </c>
+      <c r="U18" t="s">
+        <v>233</v>
+      </c>
+      <c r="V18" t="s">
+        <v>232</v>
+      </c>
+      <c r="W18" t="s">
+        <v>276</v>
+      </c>
+      <c r="X18" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>235</v>
       </c>
-      <c r="Q18" t="s">
-        <v>277</v>
-      </c>
-      <c r="R18" t="s">
-        <v>232</v>
-      </c>
-      <c r="S18" t="s">
-        <v>277</v>
-      </c>
-      <c r="T18" t="s">
-        <v>233</v>
-      </c>
-      <c r="U18" t="s">
-        <v>234</v>
-      </c>
-      <c r="V18" t="s">
-        <v>233</v>
-      </c>
-      <c r="W18" t="s">
-        <v>277</v>
-      </c>
-      <c r="X18" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>265</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>266</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>268</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>236</v>
-      </c>
       <c r="BA18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BB18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>53</v>
@@ -4595,7 +4595,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
@@ -4614,7 +4614,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>56</v>
@@ -4633,7 +4633,7 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>57</v>
@@ -4652,7 +4652,7 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
@@ -4671,7 +4671,7 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>59</v>
@@ -4690,7 +4690,7 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>60</v>
@@ -4709,7 +4709,7 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>61</v>
@@ -4728,7 +4728,7 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>62</v>
@@ -4747,7 +4747,7 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>63</v>
@@ -4766,7 +4766,7 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>64</v>
@@ -4785,7 +4785,7 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>65</v>
@@ -4804,7 +4804,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>66</v>
@@ -4823,7 +4823,7 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>67</v>
@@ -4839,13 +4839,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -4861,7 +4861,7 @@
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>68</v>
@@ -4880,7 +4880,7 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>69</v>
@@ -4899,7 +4899,7 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>70</v>
@@ -4915,10 +4915,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" t="s">
         <v>321</v>
-      </c>
-      <c r="B19" t="s">
-        <v>322</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>71</v>
@@ -4937,7 +4937,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>72</v>
@@ -4956,10 +4956,10 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -4972,10 +4972,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" t="s">
         <v>325</v>
-      </c>
-      <c r="B22" t="s">
-        <v>326</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>73</v>
@@ -4994,7 +4994,7 @@
         <v>320619930325</v>
       </c>
       <c r="B23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>74</v>
@@ -5013,7 +5013,7 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>75</v>
@@ -5032,7 +5032,7 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>76</v>
@@ -5051,7 +5051,7 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>77</v>
@@ -5070,7 +5070,7 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>78</v>
@@ -5090,7 +5090,7 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>79</v>
@@ -5110,10 +5110,10 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" t="str">
@@ -5130,10 +5130,10 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" t="str">
@@ -5191,102 +5191,102 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5294,10 +5294,10 @@
         <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5305,10 +5305,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5316,10 +5316,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5327,23 +5327,23 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -5354,7 +5354,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5362,7 +5362,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5370,65 +5370,65 @@
         <v>102</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5436,10 +5436,10 @@
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5447,10 +5447,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5458,10 +5458,10 @@
         <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5469,10 +5469,10 @@
         <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5480,10 +5480,10 @@
         <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5491,10 +5491,10 @@
         <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5502,10 +5502,10 @@
         <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5513,10 +5513,10 @@
         <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5524,10 +5524,10 @@
         <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5535,10 +5535,10 @@
         <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5546,10 +5546,10 @@
         <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5557,10 +5557,10 @@
         <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5568,10 +5568,10 @@
         <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5579,21 +5579,21 @@
         <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5601,10 +5601,10 @@
         <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5612,7 +5612,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5620,10 +5620,10 @@
         <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5631,10 +5631,10 @@
         <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5642,18 +5642,18 @@
         <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5661,7 +5661,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5669,7 +5669,7 @@
         <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5677,7 +5677,7 @@
         <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5685,7 +5685,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5693,7 +5693,7 @@
         <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5709,10 +5709,10 @@
         <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5720,15 +5720,15 @@
         <v>320619990611</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5736,7 +5736,7 @@
         <v>41</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5744,7 +5744,7 @@
         <v>43</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5752,10 +5752,10 @@
         <v>44</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5763,7 +5763,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5771,18 +5771,18 @@
         <v>46</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5790,10 +5790,10 @@
         <v>47</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5801,51 +5801,51 @@
         <v>48</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5853,18 +5853,18 @@
         <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5872,40 +5872,40 @@
         <v>52</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C76" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5913,15 +5913,15 @@
         <v>49</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5929,26 +5929,26 @@
         <v>50</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C81" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5956,18 +5956,18 @@
         <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C82" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5975,10 +5975,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5986,40 +5986,40 @@
         <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -6038,7 +6038,7 @@
         <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -6054,7 +6054,7 @@
         <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6062,7 +6062,7 @@
         <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6070,10 +6070,10 @@
         <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C94" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6081,7 +6081,7 @@
         <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6089,7 +6089,7 @@
         <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6105,7 +6105,7 @@
         <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6113,10 +6113,10 @@
         <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C99" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6124,10 +6124,10 @@
         <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C100" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6138,7 +6138,7 @@
         <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6146,7 +6146,7 @@
         <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6154,7 +6154,7 @@
         <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6162,7 +6162,7 @@
         <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6170,7 +6170,7 @@
         <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6178,7 +6178,7 @@
         <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6189,7 +6189,7 @@
         <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -6200,118 +6200,118 @@
         <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C111" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C113" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C122" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6319,10 +6319,10 @@
         <v>86</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C123" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6330,10 +6330,10 @@
         <v>87</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6341,10 +6341,10 @@
         <v>89</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C125" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6352,7 +6352,7 @@
         <v>90</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6360,21 +6360,21 @@
         <v>91</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C127" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6382,18 +6382,18 @@
         <v>92</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6401,7 +6401,7 @@
         <v>93</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6409,15 +6409,15 @@
         <v>94</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6451,22 +6451,22 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="70" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF0CA202-D214-443C-B802-70B57F2F35DA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
+    <workbookView minimized="1" xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1826,9 +1826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F604D3-423B-4BA3-A8B4-3528C702D3DE}">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF0CA202-D214-443C-B802-70B57F2F35DA}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1858B456-DAD7-41C7-9246-5885E94EDA61}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1826,9 +1826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F604D3-423B-4BA3-A8B4-3528C702D3DE}">
   <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
+++ b/product_data/processing_metadata/regression_test/PROF_meta_RT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/regression_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1858B456-DAD7-41C7-9246-5885E94EDA61}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{649E74AD-E0C3-4D72-A7D1-95432BFCBCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9A3E166-DC2B-4B6A-9F2B-CB39654EBB6D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0C6F929-BBD2-43F6-A0F2-0D84C5BBBD3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1828,7 +1828,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2101,13 +2101,12 @@
         <v>359</v>
       </c>
       <c r="AQ2" s="3"/>
-      <c r="AR2" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
+      <c r="AV2" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
